--- a/sheets/employees.xlsx
+++ b/sheets/employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagroltda-my.sharepoint.com/personal/joao_bastos_nagro_com_br/Documents/Área de Trabalho/VS Projects/lava_jato/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagroltda-my.sharepoint.com/personal/joao_bastos_nagro_com_br/Documents/Documentos/DS/Outros/streamlit_app/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_184D74523725D2474A3C3460687CCC9150DA0B13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE981F8F-405E-4AE7-B76D-07B3056DF5E2}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_184D74523725D2474A3C3460687CCC9150DA0B13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D4E6858-CF2B-4F22-AAF9-959925D8F4BD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,6 +435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
